--- a/approach2_exp/results/jdk_3_all.xlsx
+++ b/approach2_exp/results/jdk_3_all.xlsx
@@ -531,10 +531,10 @@
         <v>73.31999999999999</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9</v>
+        <v>0.85</v>
       </c>
       <c r="F4" t="n">
-        <v>65.98999999999999</v>
+        <v>62.32</v>
       </c>
       <c r="G4" t="n">
         <v>5</v>
@@ -556,10 +556,10 @@
         <v>73.31999999999999</v>
       </c>
       <c r="E5" t="n">
-        <v>0.85</v>
+        <v>0.8</v>
       </c>
       <c r="F5" t="n">
-        <v>62.32</v>
+        <v>58.66</v>
       </c>
       <c r="G5" t="n">
         <v>5</v>
@@ -581,10 +581,10 @@
         <v>73.31999999999999</v>
       </c>
       <c r="E6" t="n">
-        <v>0.85</v>
+        <v>0.8</v>
       </c>
       <c r="F6" t="n">
-        <v>62.32</v>
+        <v>58.66</v>
       </c>
       <c r="G6" t="n">
         <v>5</v>
@@ -681,10 +681,10 @@
         <v>80</v>
       </c>
       <c r="E10" t="n">
-        <v>0.85</v>
+        <v>0.8</v>
       </c>
       <c r="F10" t="n">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="G10" t="n">
         <v>4</v>
@@ -706,10 +706,10 @@
         <v>76.63</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9</v>
+        <v>0.85</v>
       </c>
       <c r="F11" t="n">
-        <v>68.97</v>
+        <v>65.14</v>
       </c>
       <c r="G11" t="n">
         <v>4</v>

--- a/approach2_exp/results/jdk_3_all.xlsx
+++ b/approach2_exp/results/jdk_3_all.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -470,24 +470,24 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>LLMGuard</t>
+          <t>SMART SENSING MIDDLEWARE</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>110.36</v>
+        <v>78.20999999999999</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>100</v>
+        <v>78.20999999999999</v>
       </c>
       <c r="G2" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -495,223 +495,123 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Multi Model Data Analysis for Annotation of Human Activities</t>
+          <t>SHAMIYANA APP</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>100.62</v>
+        <v>64.5</v>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>0.85</v>
       </c>
       <c r="F3" t="n">
-        <v>100</v>
+        <v>54.82</v>
       </c>
       <c r="G3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Post-processing of Large Language Models</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>111.25</v>
+      </c>
+      <c r="E4" t="n">
         <v>1</v>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Literature Society IITJ Website</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>73.31999999999999</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.85</v>
-      </c>
       <c r="F4" t="n">
-        <v>62.32</v>
+        <v>100</v>
       </c>
       <c r="G4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="n">
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Multi Model Data Analysis for Annotation of Human Activities</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>104.4</v>
+      </c>
+      <c r="E5" t="n">
         <v>1</v>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>CloudPhysician's Vital Extraction Challenge</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>73.31999999999999</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.8</v>
-      </c>
       <c r="F5" t="n">
-        <v>58.66</v>
+        <v>100</v>
       </c>
       <c r="G5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>FaceNet Implementation</t>
+          <t>Cloudphysician's Vital Extraction Challenge</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>73.31999999999999</v>
+        <v>78.20999999999999</v>
       </c>
       <c r="E6" t="n">
         <v>0.8</v>
       </c>
       <c r="F6" t="n">
-        <v>58.66</v>
+        <v>62.57</v>
       </c>
       <c r="G6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>SMART SENSING MIDDLEWARE</t>
+          <t>Website for the Literature Society of the college</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>73.31999999999999</v>
+        <v>74.88</v>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>0.85</v>
       </c>
       <c r="F7" t="n">
-        <v>73.31999999999999</v>
+        <v>63.65</v>
       </c>
       <c r="G7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B8" t="n">
-        <v>3</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Post-processing of Large Language Models</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>110.36</v>
-      </c>
-      <c r="E8" t="n">
-        <v>1</v>
-      </c>
-      <c r="F8" t="n">
-        <v>100</v>
-      </c>
-      <c r="G8" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B9" t="n">
-        <v>3</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Multi Model Data Analysis for Annotation of Human Activities</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>103.53</v>
-      </c>
-      <c r="E9" t="n">
-        <v>1</v>
-      </c>
-      <c r="F9" t="n">
-        <v>100</v>
-      </c>
-      <c r="G9" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B10" t="n">
-        <v>3</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Cloudphysician's Vital Extraction Challenge</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>80</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="F10" t="n">
-        <v>64</v>
-      </c>
-      <c r="G10" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B11" t="n">
-        <v>3</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Website for the Literature Society of the college</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
-        <v>76.63</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="F11" t="n">
-        <v>65.14</v>
-      </c>
-      <c r="G11" t="n">
         <v>4</v>
       </c>
     </row>

--- a/approach2_exp/results/jdk_3_all.xlsx
+++ b/approach2_exp/results/jdk_3_all.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,184 +434,254 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>id</t>
+          <t>name</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>name</t>
+          <t>project_score</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>project_score</t>
+          <t>experience</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>experience</t>
+          <t>final_score</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>final_score</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
           <t>project_count</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>LLMGuard</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>113.4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="n">
+        <v>100</v>
+      </c>
+      <c r="F2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Multi Model Data Analysis for Annotation of Human Activities</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>99.76000000000001</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" t="n">
+        <v>99.76000000000001</v>
+      </c>
+      <c r="F3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>1</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>CloudPhysician's Vital Extraction Challenge</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>80</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="E4" t="n">
+        <v>64</v>
+      </c>
+      <c r="F4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>FaceNet Implementation</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>73.31999999999999</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="E5" t="n">
+        <v>58.66</v>
+      </c>
+      <c r="F5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>1</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Literature Society IITJ Website</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>73.31999999999999</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="E6" t="n">
+        <v>62.32</v>
+      </c>
+      <c r="F6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
         <v>2</v>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="B7" t="inlineStr">
         <is>
           <t>SMART SENSING MIDDLEWARE</t>
         </is>
       </c>
-      <c r="D2" t="n">
-        <v>78.20999999999999</v>
-      </c>
-      <c r="E2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F2" t="n">
-        <v>78.20999999999999</v>
-      </c>
-      <c r="G2" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>2</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>SHAMIYANA APP</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>64.5</v>
-      </c>
-      <c r="E3" t="n">
+      <c r="C7" t="n">
+        <v>69.3</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" t="n">
+        <v>69.3</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>3</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Post-processing of Large Language Models</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>109.47</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" t="n">
+        <v>100</v>
+      </c>
+      <c r="F8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>3</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Multi Model Data Analysis for Annotation of Human Activities</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>103.53</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" t="n">
+        <v>100</v>
+      </c>
+      <c r="F9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>3</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Cloudphysician's Vital Extraction Challenge</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>76.63</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="E10" t="n">
+        <v>61.3</v>
+      </c>
+      <c r="F10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>3</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Website for the Literature Society of the college</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>73.31999999999999</v>
+      </c>
+      <c r="D11" t="n">
         <v>0.85</v>
       </c>
-      <c r="F3" t="n">
-        <v>54.82</v>
-      </c>
-      <c r="G3" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="n">
-        <v>3</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Post-processing of Large Language Models</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>111.25</v>
-      </c>
-      <c r="E4" t="n">
-        <v>1</v>
-      </c>
-      <c r="F4" t="n">
-        <v>100</v>
-      </c>
-      <c r="G4" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" t="n">
-        <v>3</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Multi Model Data Analysis for Annotation of Human Activities</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>104.4</v>
-      </c>
-      <c r="E5" t="n">
-        <v>1</v>
-      </c>
-      <c r="F5" t="n">
-        <v>100</v>
-      </c>
-      <c r="G5" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" t="n">
-        <v>3</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Cloudphysician's Vital Extraction Challenge</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>78.20999999999999</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="F6" t="n">
-        <v>62.57</v>
-      </c>
-      <c r="G6" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" t="n">
-        <v>3</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Website for the Literature Society of the college</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>74.88</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="F7" t="n">
-        <v>63.65</v>
-      </c>
-      <c r="G7" t="n">
+      <c r="E11" t="n">
+        <v>62.32</v>
+      </c>
+      <c r="F11" t="n">
         <v>4</v>
       </c>
     </row>
